--- a/ArtWorkPromotion.Seed/SeedData/seed data art promotion.xlsx
+++ b/ArtWorkPromotion.Seed/SeedData/seed data art promotion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc29d5b1afe4f7b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Cardif/repos/ArtWorkPromotion/ArtWorkPromotion.Seed/SeedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACA70945-5D57-43B8-A6D4-AC87998CEB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4332DE-82DC-184A-BD57-105C56D6D607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C272E3C0-F0B2-4D6D-B111-BA79651079BB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{C272E3C0-F0B2-4D6D-B111-BA79651079BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="47">
   <si>
     <t>description</t>
   </si>
@@ -80,9 +80,6 @@
     <t>art</t>
   </si>
   <si>
-    <t>Painting</t>
-  </si>
-  <si>
     <t>Sculpture</t>
   </si>
   <si>
@@ -183,15 +180,18 @@
   </si>
   <si>
     <t>A unique, beautifully crafted piece of art, the S.S. Titanic is the tragic story of a hundred and fifty-six people who died on the maiden voyage, it is also the story of a ship that was so technologically advanced it even had a bathtub.</t>
+  </si>
+  <si>
+    <t>Paintings</t>
+  </si>
+  <si>
+    <t>Car Paintings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +224,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,21 +541,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357B915C-3C94-4D1A-8731-2888E8615216}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="208.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="208.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -565,7 +565,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -575,497 +575,497 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>567</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>578</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>457</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>890</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>567</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2">
         <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
         <v>243.82499999999999</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2">
         <v>245.517647058824</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <v>247.21029411764701</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <v>248.90294117647099</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
         <v>250.595588235294</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2">
         <v>252.28823529411801</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2">
         <v>253.98088235294099</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2">
         <v>255.673529411765</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>257.36617647058802</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>259.058823529412</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>260.75147058823501</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>262.44411764705899</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>264.136764705882</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
